--- a/biology/Botanique/Chénopode_fétide/Chénopode_fétide.xlsx
+++ b/biology/Botanique/Chénopode_fétide/Chénopode_fétide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A9nopode_f%C3%A9tide</t>
+          <t>Chénopode_fétide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chenopodium vulvaria est une espèce de plantes de la famille des Chenopodiaceae selon la classification classique (Cronquist) ou des Amaranthaceae selon la classification phylogénétique (APGIII).
-Elle porte les noms de « vulvaire », « arroche puante », « ansérine puante », « herbe de bouc » ou « olidaire » en français[1],[2]. Elle est appelée « taouit » en tamachek  / tamahaq  (à l'instar de Aizoon canariense). Ses  graines récoltées  sont  transformées en une sorte de  farine, qui sert de céréale aux Touaregs, et qu'on mélange pour préparer la taguella.
-Elle est récoltée dans le massif montagneux du Hoggar en altitude. Outre l'élevage et la chasse, les Touaregs  pratiquent la cueillette de graines comestibles d'« afezou » (Panicum turgidum), de « toulloult » (Aristida pungens) ou de « taouit » : lorsqu'il a plu et que le taouit a fleuri, des familles entières, nomades ou sédentaires,  viennent dans le Hoggar  récolter la graine de taouit[3]. Les années 1862, 1905, 1906  furent appelées « année de la Taouit » par les tribus de l'Ahaggar[réf. nécessaire].
-La plante dégage une odeur repoussante qui serait due à la triméthylamine. Elle contient également une huile essentielle (l'ascaridole, très toxique mais au pouvoir vermifuge reconnu contre les ascaris), de l'ammoniaque libre, du carbonate d'ammonium et du malate de calcium[1].
+Elle porte les noms de « vulvaire », « arroche puante », « ansérine puante », « herbe de bouc » ou « olidaire » en français,. Elle est appelée « taouit » en tamachek  / tamahaq  (à l'instar de Aizoon canariense). Ses  graines récoltées  sont  transformées en une sorte de  farine, qui sert de céréale aux Touaregs, et qu'on mélange pour préparer la taguella.
+Elle est récoltée dans le massif montagneux du Hoggar en altitude. Outre l'élevage et la chasse, les Touaregs  pratiquent la cueillette de graines comestibles d'« afezou » (Panicum turgidum), de « toulloult » (Aristida pungens) ou de « taouit » : lorsqu'il a plu et que le taouit a fleuri, des familles entières, nomades ou sédentaires,  viennent dans le Hoggar  récolter la graine de taouit. Les années 1862, 1905, 1906  furent appelées « année de la Taouit » par les tribus de l'Ahaggar[réf. nécessaire].
+La plante dégage une odeur repoussante qui serait due à la triméthylamine. Elle contient également une huile essentielle (l'ascaridole, très toxique mais au pouvoir vermifuge reconnu contre les ascaris), de l'ammoniaque libre, du carbonate d'ammonium et du malate de calcium.
 </t>
         </is>
       </c>
